--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H2">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I2">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J2">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q2">
-        <v>4.604009607652</v>
+        <v>4.377980495816667</v>
       </c>
       <c r="R2">
-        <v>41.43608646886801</v>
+        <v>39.40182446235</v>
       </c>
       <c r="S2">
-        <v>0.003153647979342589</v>
+        <v>0.001275313319381395</v>
       </c>
       <c r="T2">
-        <v>0.003153647979342589</v>
+        <v>0.001275313319381395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H3">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I3">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J3">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N3">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O3">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P3">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q3">
-        <v>21.31194990991734</v>
+        <v>38.54747579623056</v>
       </c>
       <c r="R3">
-        <v>191.807549189256</v>
+        <v>346.927282166075</v>
       </c>
       <c r="S3">
-        <v>0.014598229260329</v>
+        <v>0.01122894662469127</v>
       </c>
       <c r="T3">
-        <v>0.014598229260329</v>
+        <v>0.01122894662469127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H4">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I4">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J4">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N4">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O4">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P4">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q4">
-        <v>1.988917731528</v>
+        <v>0.3619871323083333</v>
       </c>
       <c r="R4">
-        <v>17.900259583752</v>
+        <v>3.257884190775</v>
       </c>
       <c r="S4">
-        <v>0.001362366050385103</v>
+        <v>0.00010544748011523</v>
       </c>
       <c r="T4">
-        <v>0.001362366050385103</v>
+        <v>0.00010544748011523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H5">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I5">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J5">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N5">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O5">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P5">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q5">
-        <v>7.576622037590667</v>
+        <v>35.64243800923055</v>
       </c>
       <c r="R5">
-        <v>68.189598338316</v>
+        <v>320.781942083075</v>
       </c>
       <c r="S5">
-        <v>0.005189823830814297</v>
+        <v>0.01038270407367774</v>
       </c>
       <c r="T5">
-        <v>0.005189823830814297</v>
+        <v>0.01038270407367774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I6">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J6">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.183918</v>
       </c>
       <c r="O6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q6">
         <v>181.8382408286546</v>
@@ -824,10 +824,10 @@
         <v>1636.544167457892</v>
       </c>
       <c r="S6">
-        <v>0.1245553006239172</v>
+        <v>0.05296979525679828</v>
       </c>
       <c r="T6">
-        <v>0.1245553006239172</v>
+        <v>0.05296979525679827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I7">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J7">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N7">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O7">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P7">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q7">
-        <v>841.7287995678518</v>
+        <v>1601.059025701342</v>
       </c>
       <c r="R7">
-        <v>7575.559196110666</v>
+        <v>14409.53123131208</v>
       </c>
       <c r="S7">
-        <v>0.5765662007958744</v>
+        <v>0.4663912739090067</v>
       </c>
       <c r="T7">
-        <v>0.5765662007958744</v>
+        <v>0.4663912739090066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>8898.227294</v>
       </c>
       <c r="I8">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J8">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N8">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O8">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P8">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q8">
-        <v>78.55355055143201</v>
+        <v>15.03503805109533</v>
       </c>
       <c r="R8">
-        <v>706.9819549628882</v>
+        <v>135.315342459858</v>
       </c>
       <c r="S8">
-        <v>0.05380749978344408</v>
+        <v>0.004379732687774613</v>
       </c>
       <c r="T8">
-        <v>0.05380749978344408</v>
+        <v>0.004379732687774613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>8898.227294</v>
       </c>
       <c r="I9">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J9">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N9">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O9">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P9">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q9">
-        <v>299.2434291295338</v>
+        <v>1480.399063594702</v>
       </c>
       <c r="R9">
-        <v>2693.190862165804</v>
+        <v>13323.59157235231</v>
       </c>
       <c r="S9">
-        <v>0.2049753401985586</v>
+        <v>0.431242817460265</v>
       </c>
       <c r="T9">
-        <v>0.2049753401985586</v>
+        <v>0.431242817460265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H10">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I10">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J10">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.183918</v>
       </c>
       <c r="O10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q10">
-        <v>0.01378884334333333</v>
+        <v>0.09010678225733333</v>
       </c>
       <c r="R10">
-        <v>0.12409959009</v>
+        <v>0.8109610403159999</v>
       </c>
       <c r="S10">
-        <v>9.445062381038703E-06</v>
+        <v>2.624826211290379E-05</v>
       </c>
       <c r="T10">
-        <v>9.445062381038705E-06</v>
+        <v>2.624826211290378E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H11">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I11">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J11">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N11">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O11">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P11">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q11">
-        <v>0.06382852419777779</v>
+        <v>0.7933769945891112</v>
       </c>
       <c r="R11">
-        <v>0.5744567177800001</v>
+        <v>7.140392951302</v>
       </c>
       <c r="S11">
-        <v>4.372117209012488E-05</v>
+        <v>0.0002311120959668718</v>
       </c>
       <c r="T11">
-        <v>4.372117209012489E-05</v>
+        <v>0.0002311120959668717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H12">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I12">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J12">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N12">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O12">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P12">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q12">
-        <v>0.00595673714</v>
+        <v>0.007450351992666666</v>
       </c>
       <c r="R12">
-        <v>0.05361063426</v>
+        <v>0.067053167934</v>
       </c>
       <c r="S12">
-        <v>4.080237368274378E-06</v>
+        <v>2.170300470595199E-06</v>
       </c>
       <c r="T12">
-        <v>4.080237368274379E-06</v>
+        <v>2.170300470595199E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H13">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I13">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J13">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N13">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O13">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P13">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q13">
-        <v>0.02269171075888889</v>
+        <v>0.7335860458691111</v>
       </c>
       <c r="R13">
-        <v>0.20422539683</v>
+        <v>6.602274412821999</v>
       </c>
       <c r="S13">
-        <v>1.554333589218815E-05</v>
+        <v>0.0002136948887970527</v>
       </c>
       <c r="T13">
-        <v>1.554333589218815E-05</v>
+        <v>0.0002136948887970526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H14">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I14">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J14">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.183918</v>
       </c>
       <c r="O14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q14">
-        <v>2.952033343592666</v>
+        <v>4.016724938809333</v>
       </c>
       <c r="R14">
-        <v>26.568300092334</v>
+        <v>36.15052444928399</v>
       </c>
       <c r="S14">
-        <v>0.00202207961805727</v>
+        <v>0.00117007894842149</v>
       </c>
       <c r="T14">
-        <v>0.00202207961805727</v>
+        <v>0.00117007894842149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H15">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I15">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J15">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N15">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O15">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P15">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q15">
-        <v>13.66495557404756</v>
+        <v>35.36667363109978</v>
       </c>
       <c r="R15">
-        <v>122.984600166428</v>
+        <v>318.300062679898</v>
       </c>
       <c r="S15">
-        <v>0.009360201912323783</v>
+        <v>0.01030237343155242</v>
       </c>
       <c r="T15">
-        <v>0.009360201912323785</v>
+        <v>0.01030237343155241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H16">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I16">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J16">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N16">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O16">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P16">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q16">
-        <v>1.275269159164</v>
+        <v>0.3321172269406666</v>
       </c>
       <c r="R16">
-        <v>11.477422432476</v>
+        <v>2.989055042466</v>
       </c>
       <c r="S16">
-        <v>0.0008735320621901404</v>
+        <v>9.674632482217945E-05</v>
       </c>
       <c r="T16">
-        <v>0.0008735320621901404</v>
+        <v>9.674632482217945E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H17">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I17">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J17">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N17">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O17">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P17">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q17">
-        <v>4.858035232939778</v>
+        <v>32.70134934781978</v>
       </c>
       <c r="R17">
-        <v>43.722317096458</v>
+        <v>294.3121441303779</v>
       </c>
       <c r="S17">
-        <v>0.00332765009231789</v>
+        <v>0.00952595984035765</v>
       </c>
       <c r="T17">
-        <v>0.00332765009231789</v>
+        <v>0.00952595984035765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H18">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I18">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J18">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.183918</v>
       </c>
       <c r="O18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q18">
-        <v>0.02563757657533334</v>
+        <v>0.086747867388</v>
       </c>
       <c r="R18">
-        <v>0.230738189178</v>
+        <v>0.780730806492</v>
       </c>
       <c r="S18">
-        <v>1.756119088623591E-05</v>
+        <v>2.526980437979551E-05</v>
       </c>
       <c r="T18">
-        <v>1.756119088623591E-05</v>
+        <v>2.526980437979551E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H19">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I19">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J19">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N19">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O19">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P19">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q19">
-        <v>0.1186762831417778</v>
+        <v>0.763802242086</v>
       </c>
       <c r="R19">
-        <v>1.068086548276</v>
+        <v>6.874220178774001</v>
       </c>
       <c r="S19">
-        <v>8.129071231821932E-05</v>
+        <v>0.000222496919215704</v>
       </c>
       <c r="T19">
-        <v>8.129071231821932E-05</v>
+        <v>0.0002224969192157039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H20">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I20">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J20">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N20">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O20">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P20">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q20">
-        <v>0.011075352788</v>
+        <v>0.007172624862</v>
       </c>
       <c r="R20">
-        <v>0.09967817509200001</v>
+        <v>0.064553623758</v>
       </c>
       <c r="S20">
-        <v>7.586379464180861E-06</v>
+        <v>2.089398075248482E-06</v>
       </c>
       <c r="T20">
-        <v>7.58637946418086E-06</v>
+        <v>2.089398075248482E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4181903333333334</v>
+        <v>1.414998</v>
       </c>
       <c r="H21">
-        <v>1.254571</v>
+        <v>4.244994</v>
       </c>
       <c r="I21">
-        <v>0.0001353379847139687</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="J21">
-        <v>0.0001353379847139686</v>
+        <v>0.0004555850957885808</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N21">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O21">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P21">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q21">
-        <v>0.0421906651428889</v>
+        <v>0.706240123446</v>
       </c>
       <c r="R21">
-        <v>0.379715986286</v>
+        <v>6.356161111014</v>
       </c>
       <c r="S21">
-        <v>2.889970204533258E-05</v>
+        <v>0.0002057289741178329</v>
       </c>
       <c r="T21">
-        <v>2.889970204533258E-05</v>
+        <v>0.0002057289741178329</v>
       </c>
     </row>
   </sheetData>
